--- a/data/trans_dic/P29_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29_R2_2023-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.273457492066394</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02557216024907715</v>
+        <v>0.02557216024907714</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1279294804800094</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2436049203313377</v>
+        <v>0.2407613805292577</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01871259121184729</v>
+        <v>0.01830965713081763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1118572265230013</v>
+        <v>0.1134038512339585</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3129146692877086</v>
+        <v>0.3107905155837928</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03568580822971412</v>
+        <v>0.03546519656001339</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1432971220870353</v>
+        <v>0.1447354820942956</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1328188496718542</v>
+        <v>0.1335667030163858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02887931978751412</v>
+        <v>0.02895258624215672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08368317072322794</v>
+        <v>0.08438669932367489</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1643513026211217</v>
+        <v>0.1644968310874051</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04277993117541485</v>
+        <v>0.04216079062416456</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1009856225032059</v>
+        <v>0.1017410702154667</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.02918498620802467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07536495624264111</v>
+        <v>0.07536495624264113</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09908983565696854</v>
+        <v>0.1012863885911675</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01983539366525759</v>
+        <v>0.02034492515331852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06257097952557464</v>
+        <v>0.06331099897763352</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1455716525753956</v>
+        <v>0.1506500282366808</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04180563984879447</v>
+        <v>0.04108101077736918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.087572574656305</v>
+        <v>0.08800222309338766</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.03194060470326344</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09569371320027412</v>
+        <v>0.0956937132002741</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1508502347374774</v>
+        <v>0.1508671025581282</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02728664269476276</v>
+        <v>0.02775500919443876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08890269176483634</v>
+        <v>0.08916657604332887</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1767476482256854</v>
+        <v>0.1748339683498532</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03733992012039074</v>
+        <v>0.03697249739475236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1021582874966215</v>
+        <v>0.1022593353628737</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>140377</v>
+        <v>138738</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15331</v>
+        <v>15001</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>156101</v>
+        <v>158259</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>180316</v>
+        <v>179092</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29237</v>
+        <v>29056</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>199976</v>
+        <v>201984</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>295718</v>
+        <v>297383</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>62604</v>
+        <v>62763</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>367725</v>
+        <v>370816</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>365924</v>
+        <v>366248</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92737</v>
+        <v>91395</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>443756</v>
+        <v>447076</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>70511</v>
+        <v>72074</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14537</v>
+        <v>14910</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>90381</v>
+        <v>91450</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>103587</v>
+        <v>107201</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30638</v>
+        <v>30107</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>126495</v>
+        <v>127115</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>530134</v>
+        <v>530193</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>101505</v>
+        <v>103247</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>643144</v>
+        <v>645053</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>621146</v>
+        <v>614420</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>138902</v>
+        <v>137535</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>739038</v>
+        <v>739769</v>
       </c>
     </row>
     <row r="20">
